--- a/Gestion de Projet/Etude Economique/Plan de financement.xlsx
+++ b/Gestion de Projet/Etude Economique/Plan de financement.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Exia\Projet Entreprenariat\Git Projet EatInTime\EatInTime\Etude Economique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrien\Desktop\EatInTime\Gestion de Projet\Etude Economique\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -255,9 +255,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="177" formatCode="#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +268,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -439,10 +446,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -494,6 +502,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -506,27 +532,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="25">
     <dxf>
@@ -632,13 +643,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -687,8 +698,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Besoins initiaux :" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Coûts" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{FF4A51D9-E672-4625-8EB2-75A25EDE509D}" name="Apports" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{218968D7-0201-4EB3-AB3D-C924B8C8647B}" name="Montant" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{FF4A51D9-E672-4625-8EB2-75A25EDE509D}" name="Apports" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{218968D7-0201-4EB3-AB3D-C924B8C8647B}" name="Montant" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -700,7 +711,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B670C52E-D486-4F18-8043-5BA2DB9B2A9B}" name="Détails"/>
     <tableColumn id="2" xr3:uid="{03314F42-6142-462C-BCC6-5D664DEA530A}" name="Compte de résultat prévisionnel"/>
-    <tableColumn id="3" xr3:uid="{CF2D1A7B-486F-46F8-9238-5DD5B311F004}" name="2018" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{CF2D1A7B-486F-46F8-9238-5DD5B311F004}" name="2018" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{46074CAC-8C94-47C7-A1F8-1C5E1EDF1AFC}" name="2019"/>
     <tableColumn id="5" xr3:uid="{12AA3212-DCA6-464C-B24D-7D779148FA7F}" name="2020"/>
   </tableColumns>
@@ -1046,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,6 +1069,9 @@
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
     <col min="14" max="14" width="39.5703125" customWidth="1"/>
     <col min="15" max="15" width="19.140625" customWidth="1"/>
     <col min="16" max="16" width="22.28515625" customWidth="1"/>
@@ -1071,30 +1085,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="N2" s="25" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="S2" s="25" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="S2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="X2" s="25" t="s">
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="X2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1147,7 +1161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>46</v>
       </c>
@@ -1211,12 +1225,12 @@
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
       <c r="N5" s="11" t="s">
         <v>55</v>
       </c>
@@ -1257,7 +1271,7 @@
         <v>69503</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
@@ -1319,7 +1333,7 @@
         <v>9250</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -1370,7 +1384,7 @@
       <c r="X7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Y7" s="34">
+      <c r="Y7" s="30">
         <f>E17/12</f>
         <v>25433.333333333332</v>
       </c>
@@ -1428,7 +1442,7 @@
       <c r="X8" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Y8" s="34">
+      <c r="Y8" s="30">
         <f>AA11-(Y4+Y5+Y6+Y7)</f>
         <v>83919.666666666672</v>
       </c>
@@ -1483,7 +1497,7 @@
       <c r="Z10" s="11"/>
       <c r="AA10" s="12"/>
     </row>
-    <row r="11" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>71</v>
       </c>
@@ -1595,26 +1609,26 @@
       <c r="AA14" s="21"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N15" s="30" t="s">
+      <c r="N15" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O15" s="27">
         <f>O6+O7-(Q6+Q7+Q8)</f>
         <v>400</v>
       </c>
-      <c r="S15" s="30" t="s">
+      <c r="S15" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="T15" s="31">
+      <c r="T15" s="27">
         <f>T6+T7-(V6+V7+V8)</f>
         <v>2150</v>
       </c>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
-      <c r="X15" s="30" t="s">
+      <c r="X15" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Y15" s="35">
+      <c r="Y15" s="31">
         <f>Y6+Y7-(AA6+AA7+AA8)</f>
         <v>2583.3333333333321</v>
       </c>
@@ -1638,33 +1652,33 @@
         <v>34</v>
       </c>
       <c r="I16" s="9"/>
-      <c r="N16" s="32" t="s">
+      <c r="N16" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="O16" s="33">
+      <c r="O16" s="29">
         <f>O15-C12</f>
         <v>-6926</v>
       </c>
-      <c r="S16" s="32" t="s">
+      <c r="S16" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="T16" s="33">
+      <c r="T16" s="29">
         <f>T15-O15</f>
         <v>1750</v>
       </c>
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
-      <c r="X16" s="32" t="s">
+      <c r="X16" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="Y16" s="36">
+      <c r="Y16" s="32">
         <f>Y15-T15</f>
         <v>433.33333333333212</v>
       </c>
       <c r="Z16" s="21"/>
       <c r="AA16" s="21"/>
     </row>
-    <row r="17" spans="1:9" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -1682,7 +1696,7 @@
       </c>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>37</v>
       </c>
@@ -1701,7 +1715,7 @@
       <c r="G18" s="3"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -1716,7 +1730,7 @@
       </c>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -1731,7 +1745,7 @@
       </c>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1747,9 +1761,10 @@
       <c r="E21" s="2">
         <v>6000</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2">
@@ -1761,8 +1776,11 @@
       <c r="E22" s="2">
         <v>2300</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="37"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -1776,7 +1794,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1793,7 +1811,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>18</v>
       </c>
@@ -1807,7 +1825,7 @@
         <v>6350</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1824,7 +1842,7 @@
         <v>15900</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1841,7 +1859,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1858,7 +1876,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
@@ -1875,7 +1893,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -1889,7 +1907,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -1906,7 +1924,7 @@
         <v>104400</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>30</v>
